--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\E-lectures\Y3S1\UCCC2513 Mini Project\Works to be submitted\Report 2\mini report2\Test set of traffic signs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\E-lectures\Y3S1\UCCC2513 Mini Project\Works to be submitted\Report 2\T13_T14_TohWeiXuan_UCCC2513_report2\Code + Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8D183E-E564-4B21-B66E-0F9614E81223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330DDEC0-537B-468F-B5D7-ABCA65507F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51FDE44D-8BF2-4140-B02C-632F90B90904}"/>
+    <workbookView xWindow="8160" yWindow="2724" windowWidth="12996" windowHeight="8964" xr2:uid="{51FDE44D-8BF2-4140-B02C-632F90B90904}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DBBBC7-009A-4F08-B0F3-78C5DAB5E37D}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,22 +774,22 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C2">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="G2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1008,25 +1008,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G11">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1242,25 +1242,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C20">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="G20">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1372,25 +1372,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="C25">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="G25">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1424,25 +1424,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C27">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F27">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G27">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1476,25 +1476,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="C29">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="G29">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1505,22 +1505,22 @@
         <v>117</v>
       </c>
       <c r="C30">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G30">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1606,25 +1606,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C34">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F34">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G34">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1658,25 +1658,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C36">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F36">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="G36">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1684,25 +1684,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="C37">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F37">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="G37">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1710,25 +1710,25 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="C38">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E38">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="G38">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1736,25 +1736,25 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C39">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F39">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G39">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="H39">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2048,25 +2048,25 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="C51">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F51">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="G51">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="H51">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2074,25 +2074,25 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="C52">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="D52">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E52">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F52">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="G52">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="H52">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2282,25 +2282,25 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C60">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D60">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F60">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G60">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H60">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2360,25 +2360,25 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C63">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D63">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F63">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G63">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H63">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2542,25 +2542,25 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="C70">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E70">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F70">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="G70">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="H70">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2620,25 +2620,25 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>391</v>
+        <v>200</v>
       </c>
       <c r="C73">
-        <v>331</v>
+        <v>187</v>
       </c>
       <c r="D73">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E73">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F73">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="G73">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="H73">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2698,25 +2698,25 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C76">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D76">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E76">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G76">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H76">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2750,25 +2750,25 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C78">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D78">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F78">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G78">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H78">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
